--- a/biology/Microbiologie/Musée_de_la_santé_Armand-Frappier/Musée_de_la_santé_Armand-Frappier.xlsx
+++ b/biology/Microbiologie/Musée_de_la_santé_Armand-Frappier/Musée_de_la_santé_Armand-Frappier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée de la santé Armand-Frappier, est un Musée québécois consacré à l'interprétation des sciences relatives à la santé humaine, situé à Laval, dans la région touristique de Laval au Québec.
 Lieu reconnu de vulgarisation scientifique, de nombreuses activités sont proposées pour mieux comprendre les thématiques abordées : visites d’expositions, activités en laboratoire, ateliers scientifiques itinérants, camps scientifiques, séjours d’initiation à la recherche et une diversité d'activités culturelles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin, microbiologiste pasteurien, précurseur de la médecine préventive et bâtisseur d’un institut de recherche réputé qui porte son nom, le Dr Armand Frappier (1904-1991) a été honoré à plus d’un titre : doctorats honoris causa des universités de Paris, Cracovie, Laval, du Québec, de Montréal et McGill, grand officier de l’Ordre du Québec, compagnon de l’Ordre du Canada et officier de l’Ordre de l’Empire britannique. Reconnu mondialement pour ses travaux et sa lutte contre la tuberculose, le Dr Frappier a été un ambassadeur de choix pour le Canada dans la communauté scientifique internationale et un pionnier de la recherche scientifique au Québec. Les objets ayant appartenu au Dr Frappier permettent de commémorer la vie et l’œuvre du chercheur, qui a travaillé sans relâche à la protection de la santé de ses concitoyens.
 En 1992, à la suite du décès du Dr Frappier, la Fondation Armand-Frappier, l’Institut Armand-Frappier et la Ville de Laval créent et fondent le Musée Armand-Frappier, aujourd'hui connu sous le nom du Musée de la santé Armand-Frappier, qui ouvrira ses portes en 1994. D’abord présidé et dirigé par Mme Lise Frappier-Davignon (fille du Dr Frappier), le Musée a pour mission de commémorer la mémoire du Dr Frappier tout en faisant la promotion des connaissances scientifiques auprès du grand public, notamment auprès des enfants.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée de la santé Armand-Frappier possède (ou gère certains objets) trois collections.
 Les objets et documents d’archives des collections sont collectionnés à des fins de recherche, de diffusion et d’éducation, et certains objets de la Collection Héritage scientifique et de la Collection Santé humaine peuvent être utilisés à des fins de manipulations dans le cadre d’activités auprès des visiteurs.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,9 +602,11 @@
           <t>Performances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, la fréquentation totale du Musée de la santé Armand-Frappier a été de 9 062 visiteurs et participants[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, la fréquentation totale du Musée de la santé Armand-Frappier a été de 9 062 visiteurs et participants.
 Bien qu’en deçà des résultats obtenus au cours des dernières années, cette fréquentation s’explique en grande partie par l’importante réduction du nombre d’activités offertes par le Musée à ses divers publics afin de préparer le projet de relocalisation. Les programmes d’ateliers scientifiques (anciennement connus sous le nom des Jeunes au labo !) et des camps scientifiques ont quant à eux été mis en pause en 2022.
 </t>
         </is>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,22 +636,211 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée de la santé Armand-Frappier propose de nombreuses activités afin de sensibiliser un large public aux sciences de la santé humaine. Exposition, ateliers scientifiques ou encore actions culturelles, l’Institution propose des activités pour tous les âges à partir de 6 ans.
-Expositions et programme éducatif
-Les expositions sont ouvertes à la fois au grand public et aux visites de groupes. Lors de visites de groupes, notamment scolaires, les animateurs scientifiques du Musée animent une visite en contexte d'exposition et en laboratoire. Ils adaptent leur propos au public. En effet, pour chaque exposition est développée une programmation éducative permettant d’aborder les points essentiels du contenu de l’exposition à travers des animations scientifiques et des ateliers au laboratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions et programme éducatif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les expositions sont ouvertes à la fois au grand public et aux visites de groupes. Lors de visites de groupes, notamment scolaires, les animateurs scientifiques du Musée animent une visite en contexte d'exposition et en laboratoire. Ils adaptent leur propos au public. En effet, pour chaque exposition est développée une programmation éducative permettant d’aborder les points essentiels du contenu de l’exposition à travers des animations scientifiques et des ateliers au laboratoire.
 Lors de ces expériences de laboratoire, le public utilise du véritable matériel d’expérimentation sous la supervision d'un animateur scientifique du Musée.
 *Nous et les autres. Des préjugés au racisme est l'adaptation d'une exposition conçue et réalisée par le Musée de l’Homme, l’un des sites du Muséum national d’Histoire naturelle de France, et qui a reçu le haut patronage de l’UNESCO.
-Activités hors murs
-Le Musée de la santé Armand-Frappier propose de nombreuses activités hors de ces murs afin d’être accessible pour le plus grand nombre.
-Ateliers en classe
-Menés par des animateurs qui se déplacent dans les établissements scolaires et les bibliothèques, le Musée offre 5 ateliers scientifiques en présentiel et en virtuel. Ces activités scientifiques abordent des thèmes variés] : La santé de A à Z, La science de bouger!, Tous pareils, tous différents!, Génial, mon cerveau et Microbes, globules et compagnie!.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Activités hors murs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée de la santé Armand-Frappier propose de nombreuses activités hors de ces murs afin d’être accessible pour le plus grand nombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Activités hors murs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ateliers en classe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menés par des animateurs qui se déplacent dans les établissements scolaires et les bibliothèques, le Musée offre 5 ateliers scientifiques en présentiel et en virtuel. Ces activités scientifiques abordent des thèmes variés] : La santé de A à Z, La science de bouger!, Tous pareils, tous différents!, Génial, mon cerveau et Microbes, globules et compagnie!.
 Ces activités, toutes développées par l’équipe éducative du Musée de la santé Armand-Frappier, permettent de rejoindre des publics du préscolaire au secondaire dans le confort de leur classe.
-Kiosques
-Pendant la belle saison, l’équipe d’animation se déplace pour aller à la rencontre de ses publics dans les parcs et festivals de la région. Avec son kiosque, le Musée propose des activités au grand public pour démystifier les sciences de la santé humaine.
-Programmation culturelle
-L’institution muséale fait ainsi le lien entre le monde de la recherche, des experts et le public en utilisant des formats variés : activités, conférences, café sciences, soirées de discussions en présence d'experts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Activités hors murs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kiosques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la belle saison, l’équipe d’animation se déplace pour aller à la rencontre de ses publics dans les parcs et festivals de la région. Avec son kiosque, le Musée propose des activités au grand public pour démystifier les sciences de la santé humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Musée_de_la_santé_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_de_la_sant%C3%A9_Armand-Frappier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Activités hors murs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Programmation culturelle</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’institution muséale fait ainsi le lien entre le monde de la recherche, des experts et le public en utilisant des formats variés : activités, conférences, café sciences, soirées de discussions en présence d'experts.
 </t>
         </is>
       </c>
